--- a/WP1/T1-1/geobasisdaten.xlsx
+++ b/WP1/T1-1/geobasisdaten.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxime.collombi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/maxime_collombi_hes-so_ch/Documents/Bureau/FGDM4GS/WP1/T1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5589513-4EFF-42B1-8EAA-53A9FE098D26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{E5589513-4EFF-42B1-8EAA-53A9FE098D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C45BF35-5E62-4D42-984F-DA3087A68051}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27255" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30300" windowHeight="20490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1527,15 +1540,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E279" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E279" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
   <autoFilter ref="A1:E279" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="autorité" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="titre" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Modèle minimal" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Documentation" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="autorité" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="titre" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Modèle minimal" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Documentation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1829,8 +1846,8 @@
   <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
